--- a/lab2.xlsx
+++ b/lab2.xlsx
@@ -1,44 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elite\Desktop\1\ERW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\МОДЕЛИРОВАНИЕ\ERW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42082812-865E-4A5A-B861-584245E34724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8002900B-6391-430A-AA7E-40246842DDED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{18E421FC-8E07-451E-AED1-25348462F46C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12330" xr2:uid="{18E421FC-8E07-451E-AED1-25348462F46C}"/>
   </bookViews>
   <sheets>
     <sheet name="таб1" sheetId="1" r:id="rId1"/>
     <sheet name="таб2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="32">
   <si>
     <t>Номер состояния</t>
   </si>
@@ -122,6 +111,18 @@
   </si>
   <si>
     <t>СИСТ. 2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b1</t>
   </si>
 </sst>
 </file>
@@ -129,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -179,15 +180,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -329,11 +336,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,18 +359,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,30 +370,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,24 +393,52 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -845,272 +865,272 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB920749-5206-4F5A-891D-F49822E9FD76}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="36">
-        <f>G6/(1-G10)</f>
-        <v>0.7789473684210525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="25">
+        <f>Лист3!H13*I22</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="12">
         <v>0.17</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="37">
-        <f t="shared" ref="G3:G5" si="0">G7/(1-G11)</f>
-        <v>0.67828191167574103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="26">
+        <f>Лист3!H13*I23</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="11">
         <v>11</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="12">
         <v>0.153</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="37">
-        <f t="shared" si="0"/>
-        <v>0.60798548094373861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="26">
+        <f>Лист3!H13*I24</f>
+        <v>0.36000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="11">
         <v>12</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="38">
-        <f>3*G9/(1-G13)</f>
-        <v>3.0127041742286749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="27">
+        <f>SUM(G2:G4)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="11">
         <v>13</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="12">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="25">
         <f>C4+C7+C8+C10+C11+C12+C13</f>
         <v>0.64379999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="11">
         <v>212</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="12">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="26">
         <f>C5+C7+C9+C10+C11+C12+C13</f>
         <v>0.56059999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="11">
         <v>213</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="26">
         <f>C6+C8+C9+C10+C11+C12+C13</f>
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="11">
         <v>223</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="38">
-        <f>1-C3</f>
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="27">
+        <f>(G6+G7+G8)/3</f>
+        <v>0.56896666666666662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="12">
         <v>2.9700000000000001E-2</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="25">
         <f>C13</f>
         <v>0.17349999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="11">
         <v>41</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="26">
         <f>C13</f>
         <v>0.17349999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="11">
         <v>42</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="12">
         <v>9.64E-2</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="11" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="26">
         <f>C13</f>
         <v>0.17349999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="11">
         <v>43</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="12">
         <v>0.17349999999999999</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="27">
         <f>C13</f>
         <v>0.17349999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1120,19 +1140,19 @@
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="25">
         <f>1*C11+2*C12+3*$C$13</f>
         <v>0.76679999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1142,17 +1162,17 @@
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="26">
         <f>1*C11+2*C12+3*$C$13</f>
         <v>0.76679999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1162,17 +1182,17 @@
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="26">
         <f>1*C11+2*C12+3*$C$13</f>
         <v>0.76679999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1182,17 +1202,17 @@
       <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="38">
-        <f>C11+2*C12+3*C13</f>
-        <v>0.76679999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="27">
+        <f>G14+G16+G15</f>
+        <v>2.3003999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1202,19 +1222,19 @@
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="25">
         <f>C4+C7+C8+C10+2*C11+3*C12+4*C13</f>
         <v>1.4106000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1224,17 +1244,17 @@
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="11" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="26">
         <f>C5+C7+C9+C10+2*C11+3*C12+4*C13</f>
         <v>1.3273999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1244,17 +1264,17 @@
       <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="11" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="26">
         <f>C6+C8+C9+C10+2*C11+3*C12+4*C13</f>
         <v>1.2692999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1264,17 +1284,17 @@
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="12" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="38">
-        <f>C4+C5+C6+2*(C7+C8+C9)+3*C10+4*C11+5*C12+6*C13</f>
-        <v>2.4737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="27">
+        <f>G18+G19+G20</f>
+        <v>4.0072999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1284,14 +1304,14 @@
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="26">
         <f>(1-G10)*I22</f>
         <v>0.37192500000000001</v>
       </c>
@@ -1303,7 +1323,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1313,13 +1333,13 @@
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="11" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="37">
-        <f t="shared" ref="G23:G25" si="1">(1-G11)*I23</f>
+      <c r="G23" s="26">
+        <f t="shared" ref="G23:G25" si="0">(1-G11)*I23</f>
         <v>0.22315500000000002</v>
       </c>
       <c r="H23" t="s">
@@ -1330,7 +1350,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1340,13 +1360,13 @@
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="11" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="37">
-        <f t="shared" si="1"/>
+      <c r="G24" s="26">
+        <f t="shared" si="0"/>
         <v>0.14877000000000001</v>
       </c>
       <c r="H24" t="s">
@@ -1357,7 +1377,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1367,14 +1387,14 @@
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="12" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="38">
-        <f t="shared" si="1"/>
-        <v>0.74385000000000001</v>
+      <c r="G25" s="27">
+        <f>G22+G23+G24</f>
+        <v>0.74385000000000012</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -1383,7 +1403,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1393,23 +1413,23 @@
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1422,365 +1442,435 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="34"/>
+      <c r="C1" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="32"/>
+      <c r="E2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18">
-        <f>G6/(1-G10)</f>
-        <v>0.9141838553603262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="13">
+        <f>I$21*I22</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="4">
         <v>0.1174</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="11" t="s">
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="19">
-        <f t="shared" ref="G3:G4" si="0">G7/(1-G11)</f>
-        <v>0.51394422310756971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G4" si="0">I$21*I23</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>0.10730000000000001</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="39">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
-        <v>0.36424282855236817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.36000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="11" t="s">
+      <c r="C5" s="39">
+        <v>3</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="20">
-        <f>3*G9/(1-G13)</f>
-        <v>2.6715770356169912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="15">
+        <f>G2+G3+G4</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="39">
+        <v>4</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="13">
         <f>B4+B7+B8+B10+B12+B13+B14+B15+B16+B18+B19+B20+B21+B22+B23+B24+B25+B26</f>
         <v>0.71800000000000019</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>211</v>
       </c>
       <c r="B7" s="4">
         <v>9.64E-2</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="39">
+        <v>5</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="14">
         <f>B5+B8+B9+B11+B13+B15+B16+B17+B18+B20+B21+B22+B23+B24+B25+B26</f>
         <v>0.43859999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>212</v>
       </c>
       <c r="B8" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="11" t="s">
+      <c r="C8" s="39">
+        <v>6</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="14">
         <f>B6+B10+B11+B14+B16+B17+B19+B21+B22+B24+B25+B26</f>
         <v>0.27299999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>222</v>
       </c>
       <c r="B9" s="4">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="12" t="s">
+      <c r="C9" s="39">
+        <v>7</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="20">
-        <f>1-B3</f>
-        <v>0.88260000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="15">
+        <f>(G6+G7+G8)/3</f>
+        <v>0.47653333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>213</v>
       </c>
       <c r="B10" s="4">
         <v>4.24E-2</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="C10" s="39">
         <v>8</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="13">
         <f>B12+B18+B19+B23+B24+B26</f>
         <v>0.21459999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>223</v>
       </c>
       <c r="B11" s="4">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="11" t="s">
+      <c r="C11" s="39">
+        <v>9</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="14">
         <f>B9+B15+B17+B20+B22+B23+B25+B26</f>
         <v>0.14660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3111</v>
       </c>
       <c r="B12" s="4">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="11" t="s">
+      <c r="C12" s="39">
+        <v>10</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="14">
         <f>B6+B10+B14+B16+B17+B19+B21+B22+B24+B25+B26</f>
         <v>0.2505</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>3112</v>
       </c>
       <c r="B13" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="12" t="s">
+      <c r="C13" s="39">
+        <v>11</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="20">
-        <f>B26</f>
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="15">
+        <f>B6 + B9 + B10 + B12 + B14 + B15 + B16 + B17 +B18 + B19 + B20 + B21 + B22 + B23 + B24 + B25 + B26</f>
+        <v>0.4894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>3113</v>
       </c>
       <c r="B14" s="4">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="C14" s="39">
+        <v>12</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="13">
         <f>B7+B13+B14+B20+B21+B25+2*(B12+B18+B19+B23+B24+B26)</f>
         <v>0.66759999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3122</v>
       </c>
       <c r="B15" s="4">
         <v>2.81E-2</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="11" t="s">
+      <c r="C15" s="39">
+        <v>13</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="14">
         <f>B9+B15+B17+B20+B22+B23+B25+B26</f>
         <v>0.14660000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3123</v>
       </c>
       <c r="B16" s="4">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="11" t="s">
+      <c r="C16" s="39">
+        <v>14</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="14">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>3223</v>
       </c>
       <c r="B17" s="4">
         <v>1.12E-2</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="12" t="s">
+      <c r="C17" s="39">
+        <v>15</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="20">
-        <f>B7+B9+B13+B14+B15+B17+B21+B22+2*(B12+B18+B19+B20+B24+B25)+3*(B23+B26)</f>
-        <v>0.81419999999999992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="15">
+        <f>SUM(G14:G16)</f>
+        <v>0.81420000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>41112</v>
       </c>
       <c r="B18" s="4">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="39">
+        <v>16</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="13">
         <f>B4+B8+B10+B15+B16+B22+2*(B7+B13+B14+B20+B21+B25)+3*(B12+B18+B19+B23+B24+B26)</f>
         <v>1.3855999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>41113</v>
       </c>
       <c r="B19" s="4">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="11" t="s">
+      <c r="C19" s="39">
+        <v>17</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="14">
         <f>B5+B8+B11+B13+B16+B18+B21+B24+2*(B9+B15+B17+B20+B22+B23+B25+B26)</f>
         <v>0.58519999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>41122</v>
       </c>
       <c r="B20" s="4">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="11" t="s">
+      <c r="C20" s="39">
+        <v>18</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="14">
         <f>B6+B10+B11+B14+B16+B17+B19+B21+B22+B24+B25+B26</f>
         <v>0.27299999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>41123</v>
       </c>
       <c r="B21" s="4">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="12" t="s">
+      <c r="C21" s="39">
+        <v>19</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="20">
-        <f>B4+B5+B6+2*(B7+B8+B9+B10+B11)+3*(B12+B13+B14+B15+B16+B17)+4*(B18+B19+B20+B21+B22)+5*(B23+B24+B25)+6*B26</f>
+      <c r="G21" s="15">
+        <f>SUM(G18:G20)</f>
         <v>2.2437999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>41223</v>
       </c>
       <c r="B22" s="4">
         <v>1.06E-2</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="39">
+        <v>20</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="14">
         <f>(1-G10)*I22</f>
         <v>0.35343000000000002</v>
       </c>
@@ -1792,18 +1882,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>511122</v>
       </c>
       <c r="B23" s="4">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="11" t="s">
+      <c r="C23" s="39">
+        <v>21</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="14">
         <f t="shared" ref="G23:G25" si="1">(1-G11)*I23</f>
         <v>0.23041800000000001</v>
       </c>
@@ -1815,18 +1908,21 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>511123</v>
       </c>
       <c r="B24" s="4">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="11" t="s">
+      <c r="C24" s="39">
+        <v>22</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="14">
         <f t="shared" si="1"/>
         <v>0.13491000000000003</v>
       </c>
@@ -1838,20 +1934,23 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>511223</v>
       </c>
       <c r="B25" s="4">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="12" t="s">
+      <c r="C25" s="39">
+        <v>23</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.89198999999999995</v>
+      <c r="G25" s="15">
+        <f>SUM(G22:G24)</f>
+        <v>0.71875800000000001</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -1860,16 +1959,19 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>6111223</v>
       </c>
       <c r="B26" s="4">
         <v>8.8999999999999999E-3</v>
       </c>
+      <c r="C26" s="39">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="A1:B1"/>
@@ -1877,6 +1979,7 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1886,221 +1989,248 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51B7E62-5272-4D15-A3F4-8DF6BF68E95F}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36">
+      <c r="C2" s="23"/>
+      <c r="D2" s="25">
         <f>1-таб1!G6</f>
         <v>0.35620000000000007</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="13">
         <f>1-таб2!G6</f>
         <v>0.28199999999999981</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37">
+      <c r="C3" s="24"/>
+      <c r="D3" s="26">
         <f>1-таб1!G7</f>
         <v>0.43940000000000001</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="26">
         <f>1-таб2!G7</f>
         <v>0.56140000000000012</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="37">
+      <c r="C4" s="24"/>
+      <c r="D4" s="26">
         <f>1-таб1!G8</f>
         <v>0.49750000000000005</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="26">
         <f>1-таб2!G8</f>
         <v>0.72700000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="38">
+      <c r="D5" s="27">
         <f>1-таб1!G9</f>
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="E5" s="38">
+        <v>0.43103333333333338</v>
+      </c>
+      <c r="E5" s="27">
         <f>1-таб2!G9</f>
-        <v>0.11739999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+        <v>0.52346666666666675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="36">
+      <c r="C6" s="23"/>
+      <c r="D6" s="25">
         <f>таб1!G14/таб1!G22</f>
         <v>2.0617059891107075</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="13">
         <f>таб2!G14/таб2!G22</f>
         <v>1.8889171830348299</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="37">
+      <c r="C7" s="24"/>
+      <c r="D7" s="26">
         <f>таб1!G15/таб1!G23</f>
         <v>3.4361766485178458</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="14">
         <f>таб2!G15/таб2!G23</f>
         <v>0.63623501636156898</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="37">
+      <c r="C8" s="24"/>
+      <c r="D8" s="26">
         <f>таб1!G16/таб1!G24</f>
         <v>5.1542649727767689</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="14">
         <f>таб2!G16/таб2!G24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="38">
+      <c r="D9" s="27">
         <f>таб1!G17/таб1!G25</f>
-        <v>1.0308529945553537</v>
-      </c>
-      <c r="E9" s="38">
+        <v>3.092558983666061</v>
+      </c>
+      <c r="E9" s="27">
         <f>таб2!G17/таб2!G25</f>
-        <v>0.91279050213567414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+        <v>1.1327873915838154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="37">
-        <f>таб1!G18/таб1!G22</f>
-        <v>3.7927001411574914</v>
-      </c>
-      <c r="E10" s="37">
-        <f>таб2!G18/таб2!G22</f>
-        <v>3.9204368616133318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="32" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="26">
+        <f>D6+$H10</f>
+        <v>3.0617059891107075</v>
+      </c>
+      <c r="E10" s="26">
+        <f>E6+$H10</f>
+        <v>2.8889171830348301</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <f>H13*0.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="37">
-        <f>таб1!G19/таб1!G23</f>
-        <v>5.9483318769465159</v>
-      </c>
-      <c r="E11" s="37">
-        <f>таб2!G19/таб2!G23</f>
-        <v>2.5397321389821972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="32" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="26">
+        <f t="shared" ref="D11:D13" si="0">D7+H11</f>
+        <v>4.0361766485178459</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" ref="E11:E13" si="1">E7+$H11</f>
+        <v>1.236235016361569</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <f>H13*0.3</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="37">
-        <f>таб1!G20/таб1!G24</f>
-        <v>8.5319620891308716</v>
-      </c>
-      <c r="E12" s="37">
-        <f>таб2!G20/таб2!G24</f>
-        <v>2.0235712697353785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
-      <c r="B13" s="33" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="26">
+        <f t="shared" si="0"/>
+        <v>5.5542649727767692</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <f>H13*0.2</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="38">
-        <f>таб1!G21/таб1!G25</f>
-        <v>3.3255360623781676</v>
-      </c>
-      <c r="E13" s="38">
-        <f>таб2!G21/таб2!G25</f>
-        <v>2.5154990526799628</v>
+      <c r="D13" s="27">
+        <f t="shared" si="0"/>
+        <v>5.092558983666061</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="1"/>
+        <v>3.1327873915838156</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
